--- a/data/trans_orig/P55$amigo-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55$amigo-Estudios-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5750</v>
+        <v>5018</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009772066408323808</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05580652208689695</v>
+        <v>0.04870455043243074</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3796</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>945</v>
+        <v>1159</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9931</v>
+        <v>9707</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.018442120959551</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004590035270823501</v>
+        <v>0.005631376448880264</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04824244441682328</v>
+        <v>0.0471578790475864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>4803</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1892</v>
+        <v>1657</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10826</v>
+        <v>10726</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01555023189234881</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006125083733497343</v>
+        <v>0.005363276749978899</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0350511251247804</v>
+        <v>0.03472481873595747</v>
       </c>
     </row>
     <row r="5">
@@ -828,19 +828,19 @@
         <v>9646</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4494</v>
+        <v>4322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17953</v>
+        <v>17647</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0468607549336058</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02183121381856635</v>
+        <v>0.02099739991631671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08721517850075876</v>
+        <v>0.0857250434714525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -849,19 +849,19 @@
         <v>9646</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4376</v>
+        <v>4989</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18044</v>
+        <v>17532</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03123039135600244</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01416698945042799</v>
+        <v>0.01615303907555439</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05841876815263609</v>
+        <v>0.05676193141669708</v>
       </c>
     </row>
     <row r="6">
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6050</v>
+        <v>6095</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005423755492838647</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02938999502446335</v>
+        <v>0.02960936323371196</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6393</v>
+        <v>5581</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003614666620301182</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02069828900426704</v>
+        <v>0.01807001773729097</v>
       </c>
     </row>
     <row r="7">
@@ -941,19 +941,19 @@
         <v>20023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12979</v>
+        <v>12591</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28827</v>
+        <v>28236</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1943490340750931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.125977766948865</v>
+        <v>0.1222108523876469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2798056601482855</v>
+        <v>0.2740710754812578</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -962,19 +962,19 @@
         <v>57939</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44622</v>
+        <v>45302</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>71346</v>
+        <v>72648</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2814604988504513</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2167705925027608</v>
+        <v>0.2200728445366252</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3465918755163554</v>
+        <v>0.3529172733219619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -983,19 +983,19 @@
         <v>77962</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63524</v>
+        <v>62199</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94048</v>
+        <v>93597</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2524045464197748</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2056599793019669</v>
+        <v>0.2013713271212244</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.304482466663386</v>
+        <v>0.3030220019356903</v>
       </c>
     </row>
     <row r="8">
@@ -1012,19 +1012,19 @@
         <v>16933</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10928</v>
+        <v>10486</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24492</v>
+        <v>24820</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1643547136959275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1060740831029961</v>
+        <v>0.1017822528746693</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2377290865350314</v>
+        <v>0.2409086455513332</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>60</v>
@@ -1033,19 +1033,19 @@
         <v>66588</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53151</v>
+        <v>53682</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82462</v>
+        <v>81517</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3234745884072828</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2581992948336544</v>
+        <v>0.2607828620952934</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4005918891377385</v>
+        <v>0.3960011917150961</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>79</v>
@@ -1054,19 +1054,19 @@
         <v>83520</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>68094</v>
+        <v>69506</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>100617</v>
+        <v>99954</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2704002941991548</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2204551726663742</v>
+        <v>0.225029582666141</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3257512492274195</v>
+        <v>0.3236049961170014</v>
       </c>
     </row>
     <row r="9">
@@ -1083,19 +1083,19 @@
         <v>3733</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>975</v>
+        <v>1019</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9114</v>
+        <v>9415</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03623559105653347</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009466066953041924</v>
+        <v>0.009886407801051277</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08846487407091504</v>
+        <v>0.09138917009728383</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -1104,19 +1104,19 @@
         <v>14297</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7952</v>
+        <v>8420</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23059</v>
+        <v>23205</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0694550403611692</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03863003920359977</v>
+        <v>0.04090340565818688</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1120173828796156</v>
+        <v>0.112725241215609</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -1125,19 +1125,19 @@
         <v>18031</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11198</v>
+        <v>10748</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28225</v>
+        <v>27569</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05837472227378693</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03625436450752204</v>
+        <v>0.03479636305491277</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0913782003698288</v>
+        <v>0.08925525944461486</v>
       </c>
     </row>
     <row r="10">
@@ -1201,19 +1201,19 @@
         <v>53579</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44328</v>
+        <v>44766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63101</v>
+        <v>63800</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.52004899666513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4302635982876702</v>
+        <v>0.4345159144455565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6124728166267246</v>
+        <v>0.6192570180931605</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1222,19 +1222,19 @@
         <v>22735</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15108</v>
+        <v>14683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32545</v>
+        <v>33744</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1104447462844161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07339181493320716</v>
+        <v>0.07132830205831271</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1580973891635885</v>
+        <v>0.1639224874021063</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>80</v>
@@ -1243,19 +1243,19 @@
         <v>76314</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>63449</v>
+        <v>62400</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>91804</v>
+        <v>93468</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.24706788360803</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2054175956102215</v>
+        <v>0.2020205628944155</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2972189615377336</v>
+        <v>0.302604422089141</v>
       </c>
     </row>
     <row r="12">
@@ -1272,19 +1272,19 @@
         <v>10714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6172</v>
+        <v>6074</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18040</v>
+        <v>18034</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1039920848034761</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05990789979886677</v>
+        <v>0.05895619856975028</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1750966295763055</v>
+        <v>0.1750471427609912</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -1293,19 +1293,19 @@
         <v>34903</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25459</v>
+        <v>25115</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47574</v>
+        <v>46515</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1695561466982295</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.123677103149647</v>
+        <v>0.122003707886354</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2311102949344059</v>
+        <v>0.2259624656279015</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>45</v>
@@ -1314,19 +1314,19 @@
         <v>45617</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33509</v>
+        <v>32678</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59463</v>
+        <v>58268</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1476873115398662</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1084871705826222</v>
+        <v>0.1057949299994916</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1925130836560122</v>
+        <v>0.1886435251488629</v>
       </c>
     </row>
     <row r="13">
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5846</v>
+        <v>5379</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005670007078839557</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02840008138542887</v>
+        <v>0.02613079911823951</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5843</v>
+        <v>5866</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003778781206456291</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01891751884333853</v>
+        <v>0.01899083584293733</v>
       </c>
     </row>
     <row r="14">
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4347</v>
+        <v>4255</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05422944228360392</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3064136997331197</v>
+        <v>0.299908241729265</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>3379</v>
+        <v>3971</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02778947786392371</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1220347039611458</v>
+        <v>0.1434226615809867</v>
       </c>
     </row>
     <row r="15">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3645</v>
+        <v>3656</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05889992250123972</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2568764775460488</v>
+        <v>0.2576967851998528</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>3825</v>
+        <v>5001</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03018283101594618</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1381415566317843</v>
+        <v>0.1806407309681504</v>
       </c>
     </row>
     <row r="16">
@@ -1583,19 +1583,19 @@
         <v>2604</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6263</v>
+        <v>5815</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1835303865506903</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05489833880904019</v>
+        <v>0.05621439393598088</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4414230673993266</v>
+        <v>0.4098482782925175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4530</v>
+        <v>4499</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08270955301046115</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3356057866390953</v>
+        <v>0.333274159821686</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1625,19 +1625,19 @@
         <v>3720</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8872</v>
+        <v>8612</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1343744458049724</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03402072014819679</v>
+        <v>0.03357149241211334</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3204380992725011</v>
+        <v>0.311048710424474</v>
       </c>
     </row>
     <row r="18">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4035</v>
+        <v>3927</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06560264099689279</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2844172276936015</v>
+        <v>0.2767729329478285</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1675,19 +1675,19 @@
         <v>3488</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1020</v>
+        <v>1052</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7820</v>
+        <v>7592</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2584250251466547</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07557745937380762</v>
+        <v>0.07796603343070854</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5792788080882381</v>
+        <v>0.5624238295397966</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1696,19 +1696,19 @@
         <v>4419</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1193</v>
+        <v>1140</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>9859</v>
+        <v>9956</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1596146160707917</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04309619612165205</v>
+        <v>0.04116596192901054</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3560938896030669</v>
+        <v>0.3596053740900929</v>
       </c>
     </row>
     <row r="19">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6727</v>
+        <v>7274</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1903852340428877</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.474108172060955</v>
+        <v>0.5126944167905874</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8128</v>
+        <v>8262</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09756150947273134</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2935566421482711</v>
+        <v>0.2984239340317592</v>
       </c>
     </row>
     <row r="20">
@@ -1835,19 +1835,19 @@
         <v>5516</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2495</v>
+        <v>2361</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9093</v>
+        <v>8811</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3888055101610386</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1758439691207025</v>
+        <v>0.1663765127350039</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6409000201264574</v>
+        <v>0.6210254184684555</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4106</v>
+        <v>4473</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06769443318628922</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3041961390282399</v>
+        <v>0.3313307109538347</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1877,19 +1877,19 @@
         <v>6430</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2642</v>
+        <v>2717</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11461</v>
+        <v>12002</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2322454370262917</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09543659998731016</v>
+        <v>0.0981230523792475</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.413933168056813</v>
+        <v>0.4334899729077888</v>
       </c>
     </row>
     <row r="22">
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3824</v>
+        <v>3697</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05854686346364699</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2695553616976504</v>
+        <v>0.2605558049463748</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -1927,19 +1927,19 @@
         <v>7980</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3940</v>
+        <v>4172</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11598</v>
+        <v>11502</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5911709886565949</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2918740878056083</v>
+        <v>0.3090323995668644</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8591501564206158</v>
+        <v>0.8520511727536049</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -1948,19 +1948,19 @@
         <v>8811</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4451</v>
+        <v>4546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14652</v>
+        <v>14210</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3182316827453429</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1607469187483119</v>
+        <v>0.1642051201998277</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5291921795301441</v>
+        <v>0.5132304273549779</v>
       </c>
     </row>
     <row r="23">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4979</v>
+        <v>5259</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1618271254648659</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4302610618635767</v>
+        <v>0.4544353838275826</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6118</v>
+        <v>6095</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0894445181908093</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2921909111698577</v>
+        <v>0.2910961715153166</v>
       </c>
     </row>
     <row r="25">
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6204</v>
+        <v>6480</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1869872937399621</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6624359571656422</v>
+        <v>0.6919867255484894</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8146</v>
+        <v>8238</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.08363633605391343</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3890627610985612</v>
+        <v>0.3934781162265434</v>
       </c>
     </row>
     <row r="28">
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6169</v>
+        <v>6109</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1771371211477469</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6587520373236672</v>
+        <v>0.6522751735443002</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>0</v>
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6526</v>
+        <v>7414</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07923051612554313</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3117069524066503</v>
+        <v>0.3540894823120816</v>
       </c>
     </row>
     <row r="29">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4738</v>
+        <v>4286</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07905941305239644</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4094258985888871</v>
+        <v>0.3703509093958045</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4180</v>
+        <v>4792</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04369744002191433</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1996596850823223</v>
+        <v>0.228870020215012</v>
       </c>
     </row>
     <row r="30">
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6630</v>
+        <v>6979</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2658570291208116</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7079579323475944</v>
+        <v>0.7452277661966987</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5387</v>
+        <v>5629</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1100711274204092</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4655525321059271</v>
+        <v>0.4864294269778225</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2463,19 +2463,19 @@
         <v>3763</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>961</v>
+        <v>1010</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8638</v>
+        <v>9745</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1797515948279772</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04588279516515265</v>
+        <v>0.04826330281809783</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4125612513721385</v>
+        <v>0.4654527115626831</v>
       </c>
     </row>
     <row r="32">
@@ -2492,19 +2492,19 @@
         <v>3465</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7641</v>
+        <v>7410</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3700185559914793</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08795753338785035</v>
+        <v>0.08750952838911828</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8159012164736188</v>
+        <v>0.7911970808228247</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -2513,19 +2513,19 @@
         <v>7511</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3692</v>
+        <v>3925</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10565</v>
+        <v>10618</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6490423340623285</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3190848050696948</v>
+        <v>0.3391442116459938</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.913007573542388</v>
+        <v>0.9175903809454539</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -2534,19 +2534,19 @@
         <v>10976</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6464</v>
+        <v>6044</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15649</v>
+        <v>15713</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5242395947798426</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.308752352189664</v>
+        <v>0.2886930504685368</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7474356184094286</v>
+        <v>0.7504820296559456</v>
       </c>
     </row>
     <row r="33">
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6527</v>
+        <v>5643</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01403220032285313</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05156814449601629</v>
+        <v>0.04458187618541827</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -2635,19 +2635,19 @@
         <v>5669</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2130</v>
+        <v>2095</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11569</v>
+        <v>11614</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02454964311219122</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009226009984120122</v>
+        <v>0.009072933232356428</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05010127700810785</v>
+        <v>0.05029425240250963</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -2656,19 +2656,19 @@
         <v>7445</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3427</v>
+        <v>3256</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13913</v>
+        <v>14253</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02082578960281061</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00958602821989999</v>
+        <v>0.009108090189088055</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03891674917973339</v>
+        <v>0.03986961977275038</v>
       </c>
     </row>
     <row r="35">
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.006601954204140626</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -2706,19 +2706,19 @@
         <v>9646</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4411</v>
+        <v>4599</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>18064</v>
+        <v>17041</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04177307216011531</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01910310463556389</v>
+        <v>0.01991670491842906</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07822511526908539</v>
+        <v>0.0737946686753128</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>10</v>
@@ -2727,19 +2727,19 @@
         <v>10482</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>5251</v>
+        <v>4675</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>18211</v>
+        <v>18213</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02932022657278614</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01468680890088219</v>
+        <v>0.01307648163711771</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0509392718522156</v>
+        <v>0.05094618404394512</v>
       </c>
     </row>
     <row r="36">
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5547</v>
+        <v>5621</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.004834897130918606</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02402147414552642</v>
+        <v>0.02433944046343429</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6491</v>
+        <v>5641</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.00312303151785178</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01815605450265737</v>
+        <v>0.01577907413969191</v>
       </c>
     </row>
     <row r="37">
@@ -2819,19 +2819,19 @@
         <v>24378</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15952</v>
+        <v>17321</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>33060</v>
+        <v>35325</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1925917367962077</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1260247094687757</v>
+        <v>0.1368441615729329</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2611803867869297</v>
+        <v>0.2790742133208688</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>54</v>
@@ -2840,19 +2840,19 @@
         <v>59055</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>46675</v>
+        <v>45953</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>74574</v>
+        <v>73648</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2557371658920687</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2021249972789979</v>
+        <v>0.1989970118154025</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3229410421528258</v>
+        <v>0.3189315091687445</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>79</v>
@@ -2861,19 +2861,19 @@
         <v>83433</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>67880</v>
+        <v>68901</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>100135</v>
+        <v>101870</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2333796087890873</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1898722202856415</v>
+        <v>0.1927290954218062</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2800982219981317</v>
+        <v>0.2849507622718641</v>
       </c>
     </row>
     <row r="38">
@@ -2890,19 +2890,19 @@
         <v>19522</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>11856</v>
+        <v>12479</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>28205</v>
+        <v>28676</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1542315354605209</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09366357930322894</v>
+        <v>0.09858490516230982</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2228291236217313</v>
+        <v>0.226546663000233</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>63</v>
@@ -2911,19 +2911,19 @@
         <v>70076</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>55566</v>
+        <v>56317</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>84866</v>
+        <v>84259</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3034614582956775</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2406246001620983</v>
+        <v>0.2438784623876211</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3675083390692294</v>
+        <v>0.364882012047018</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>84</v>
@@ -2932,19 +2932,19 @@
         <v>89598</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>74327</v>
+        <v>74223</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>106717</v>
+        <v>108590</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.250624434792432</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2079075683970177</v>
+        <v>0.207616581250103</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2985094560080115</v>
+        <v>0.3037472652663393</v>
       </c>
     </row>
     <row r="39">
@@ -2961,19 +2961,19 @@
         <v>6434</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.05083296261149261</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>15</v>
@@ -2982,19 +2982,19 @@
         <v>15212</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.06587626594301266</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>21</v>
@@ -3003,19 +3003,19 @@
         <v>21647</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.06054996571720619</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
     </row>
     <row r="40">
@@ -3079,19 +3079,19 @@
         <v>61584</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>50517</v>
+        <v>49719</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>72403</v>
+        <v>73993</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4865317572290724</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3990990758796476</v>
+        <v>0.3927919396533059</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.572002725873816</v>
+        <v>0.5845679426895661</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>25</v>
@@ -3100,19 +3100,19 @@
         <v>24923</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>17244</v>
+        <v>16892</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>36156</v>
+        <v>35436</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1079269962717578</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.07467356715150032</v>
+        <v>0.07314970349650399</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1565721811640426</v>
+        <v>0.1534534152063914</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>90</v>
@@ -3121,19 +3121,19 @@
         <v>86507</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>71883</v>
+        <v>71300</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>101326</v>
+        <v>103352</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.241977515585097</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2010695570804684</v>
+        <v>0.1994395537853819</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2834284296269888</v>
+        <v>0.2890948580625488</v>
       </c>
     </row>
     <row r="42">
@@ -3150,19 +3150,19 @@
         <v>15010</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8643</v>
+        <v>8993</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>23967</v>
+        <v>22591</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1185802803852534</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0682851792858145</v>
+        <v>0.07104578713310664</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1893449281325758</v>
+        <v>0.178478730276999</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>47</v>
@@ -3171,19 +3171,19 @@
         <v>50394</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>38638</v>
+        <v>38243</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>64892</v>
+        <v>63953</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2182311240183027</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1673194096932216</v>
+        <v>0.1656097885989236</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.281011247141275</v>
+        <v>0.2769468120690114</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>63</v>
@@ -3192,19 +3192,19 @@
         <v>65404</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>52056</v>
+        <v>52795</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>81699</v>
+        <v>80466</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1829482942270295</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1456119879531752</v>
+        <v>0.1476788896274832</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2285275098359725</v>
+        <v>0.2250788044550181</v>
       </c>
     </row>
     <row r="43">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>5894</v>
+        <v>4728</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.005054413126470394</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02552208458347649</v>
+        <v>0.0204749634065941</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>5946</v>
+        <v>6974</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.003264824684121398</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01663254487118498</v>
+        <v>0.0195089540816229</v>
       </c>
     </row>
     <row r="44">
@@ -3530,7 +3530,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4674</v>
+        <v>5714</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008553585035125514</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03765421356040988</v>
+        <v>0.04603332519456727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3548,19 +3548,19 @@
         <v>3188</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8430</v>
+        <v>8588</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01270971179480084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003909195934850139</v>
+        <v>0.003961547394115712</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03360520970021035</v>
+        <v>0.03423784027230575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -3569,19 +3569,19 @@
         <v>4250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9891</v>
+        <v>9905</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01133392234945828</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00289630666540361</v>
+        <v>0.002841766711278871</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02637704795676445</v>
+        <v>0.02641568736143796</v>
       </c>
     </row>
     <row r="5">
@@ -3598,19 +3598,19 @@
         <v>10893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5535</v>
+        <v>5418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18732</v>
+        <v>18395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08776048747538685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04458961537522452</v>
+        <v>0.04365256290202993</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1509095815671095</v>
+        <v>0.1481974681145609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -3619,19 +3619,19 @@
         <v>51695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38756</v>
+        <v>39142</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65494</v>
+        <v>66735</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2060832658277464</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1545037894844342</v>
+        <v>0.1560417237191467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2610964841737525</v>
+        <v>0.2660414126546379</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -3640,19 +3640,19 @@
         <v>62588</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48892</v>
+        <v>50209</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>77183</v>
+        <v>77692</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1669152521905732</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1303891075007433</v>
+        <v>0.1339011432628276</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2058383603948548</v>
+        <v>0.2071968410284145</v>
       </c>
     </row>
     <row r="6">
@@ -3716,19 +3716,19 @@
         <v>30979</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21022</v>
+        <v>21568</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40916</v>
+        <v>41394</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2495762390307801</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1693629192100488</v>
+        <v>0.1737566678911152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3296314564420261</v>
+        <v>0.333489561420089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -3737,19 +3737,19 @@
         <v>82462</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66979</v>
+        <v>67544</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97401</v>
+        <v>99139</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.328738450879673</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2670136509929995</v>
+        <v>0.2692664751564829</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3882932423387241</v>
+        <v>0.3952229764888393</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -3758,19 +3758,19 @@
         <v>113441</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95794</v>
+        <v>95520</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131349</v>
+        <v>132582</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3025336352353622</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2554721780125918</v>
+        <v>0.2547419767771951</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3502936401847154</v>
+        <v>0.3535799479430275</v>
       </c>
     </row>
     <row r="8">
@@ -3787,19 +3787,19 @@
         <v>22606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14606</v>
+        <v>14362</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32719</v>
+        <v>35866</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1821226352672922</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1176713202681665</v>
+        <v>0.1157019300099622</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.263594841818474</v>
+        <v>0.2889480205748083</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -3808,19 +3808,19 @@
         <v>74286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59831</v>
+        <v>60672</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90433</v>
+        <v>90932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2961425819684454</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.238520355021857</v>
+        <v>0.2418712079837005</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.360516805420934</v>
+        <v>0.3625060980039762</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>87</v>
@@ -3829,19 +3829,19 @@
         <v>96892</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>80544</v>
+        <v>79502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>115368</v>
+        <v>115711</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2583989210310628</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2148004612120912</v>
+        <v>0.2120238014201298</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3076747250321987</v>
+        <v>0.3085891516660182</v>
       </c>
     </row>
     <row r="9">
@@ -3858,19 +3858,19 @@
         <v>6292</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2057</v>
+        <v>2048</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14865</v>
+        <v>15044</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0506888529717866</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01657602294111482</v>
+        <v>0.01649690815200452</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1197602535461237</v>
+        <v>0.121201466380909</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -3879,19 +3879,19 @@
         <v>6361</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2282</v>
+        <v>2898</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12949</v>
+        <v>13499</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02536000139092934</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009096546511197253</v>
+        <v>0.0115541393649747</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05162331865040294</v>
+        <v>0.05381544338183197</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -3900,19 +3900,19 @@
         <v>12653</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6226</v>
+        <v>6442</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24182</v>
+        <v>22931</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03374453070935512</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01660382796462919</v>
+        <v>0.01717947842240344</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06449195310718368</v>
+        <v>0.06115418772495029</v>
       </c>
     </row>
     <row r="10">
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5483</v>
+        <v>4939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008038099857102828</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0441768301093852</v>
+        <v>0.03978954586940631</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7709</v>
+        <v>7713</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008732939758166974</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03073371057597337</v>
+        <v>0.03075012140908644</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -3971,19 +3971,19 @@
         <v>3188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8203</v>
+        <v>8549</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008502929111869553</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002631194475569438</v>
+        <v>0.00265479708918061</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02187630040733165</v>
+        <v>0.02279798826713407</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>49653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38228</v>
+        <v>37678</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>62496</v>
+        <v>62392</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4000208769527742</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3079812649237858</v>
+        <v>0.3035483543188383</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5034934287232636</v>
+        <v>0.5026515355354412</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -4021,19 +4021,19 @@
         <v>38003</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28383</v>
+        <v>27378</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51337</v>
+        <v>51619</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1515016530138105</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1131508548074474</v>
+        <v>0.1091441231454511</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2046576170451157</v>
+        <v>0.2057829727602508</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -4042,19 +4042,19 @@
         <v>87656</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>71173</v>
+        <v>70618</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>104916</v>
+        <v>106676</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2337681826532148</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1898101260851626</v>
+        <v>0.1883299828712782</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2797995488907664</v>
+        <v>0.284494020447653</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>14569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7682</v>
+        <v>9152</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23325</v>
+        <v>23300</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1173732067740343</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06189171079986621</v>
+        <v>0.07373162059754861</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.187915488468215</v>
+        <v>0.1877135659819039</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>33</v>
@@ -4092,19 +4092,19 @@
         <v>37189</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25842</v>
+        <v>25929</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>50656</v>
+        <v>50042</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.148256530621902</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1030212091797298</v>
+        <v>0.1033679740186898</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2019424088726675</v>
+        <v>0.19949481018344</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -4113,19 +4113,19 @@
         <v>51758</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>38877</v>
+        <v>38362</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65662</v>
+        <v>67259</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1380333219846582</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1036818124410878</v>
+        <v>0.1023066445030407</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1751127379278823</v>
+        <v>0.1793733822926865</v>
       </c>
     </row>
     <row r="13">
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9555</v>
+        <v>9731</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1673518158446307</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4774011041847336</v>
+        <v>0.4861992773969543</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11672</v>
+        <v>10695</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08136279699621471</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2835206491927161</v>
+        <v>0.2597854182859149</v>
       </c>
     </row>
     <row r="15">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4179</v>
+        <v>4798</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04759011122101482</v>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2088090287644145</v>
+        <v>0.2397390852191601</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4668</v>
+        <v>5119</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02313727245061702</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1133956436490636</v>
+        <v>0.124337275659339</v>
       </c>
     </row>
     <row r="16">
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6046</v>
+        <v>6363</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09950455386752818</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3020603169452971</v>
+        <v>0.3179281466488008</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -4387,19 +4387,19 @@
         <v>4771</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1051</v>
+        <v>1150</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10204</v>
+        <v>10143</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2255567738697633</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04968571523441492</v>
+        <v>0.05437212923913335</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4824026747684761</v>
+        <v>0.479488449991316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -4408,19 +4408,19 @@
         <v>6763</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2279</v>
+        <v>2549</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13869</v>
+        <v>12997</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1642729381659089</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05535468425537457</v>
+        <v>0.0619061356356079</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3368956107792453</v>
+        <v>0.315699326209702</v>
       </c>
     </row>
     <row r="18">
@@ -4437,19 +4437,19 @@
         <v>4177</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1068</v>
+        <v>1026</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8728</v>
+        <v>8986</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.208684211283069</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05336214232562608</v>
+        <v>0.05124096663159989</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4360614829158727</v>
+        <v>0.4489600223594568</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -4458,19 +4458,19 @@
         <v>5559</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1544</v>
+        <v>2097</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10390</v>
+        <v>10804</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2628101608943815</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07299662064839102</v>
+        <v>0.09913261985679395</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4911821954771146</v>
+        <v>0.5107344079421962</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -4479,19 +4479,19 @@
         <v>9736</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5036</v>
+        <v>4923</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16770</v>
+        <v>16351</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2364953065964091</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1223196048228676</v>
+        <v>0.1195805399291169</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4073618780424763</v>
+        <v>0.3971731798540008</v>
       </c>
     </row>
     <row r="19">
@@ -4602,19 +4602,19 @@
         <v>7992</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3671</v>
+        <v>3841</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13154</v>
+        <v>12930</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3992828573754804</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1834081554569813</v>
+        <v>0.1919171977649591</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6572297160809109</v>
+        <v>0.6459998053575892</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -4623,19 +4623,19 @@
         <v>4056</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>958</v>
+        <v>975</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8590</v>
+        <v>8600</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1917295550747727</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04527561202447138</v>
+        <v>0.04608854207852638</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4060677395047043</v>
+        <v>0.4065520595735732</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -4644,19 +4644,19 @@
         <v>12047</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6684</v>
+        <v>7189</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18895</v>
+        <v>18283</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2926374365683589</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1623547442720177</v>
+        <v>0.174617707296526</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4589728095825788</v>
+        <v>0.444110244857957</v>
       </c>
     </row>
     <row r="22">
@@ -4673,19 +4673,19 @@
         <v>3544</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8566</v>
+        <v>8000</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.177091004275805</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05074598453823877</v>
+        <v>0.05112544436694856</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4279943215689814</v>
+        <v>0.3997156602199927</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4694,19 +4694,19 @@
         <v>6767</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2830</v>
+        <v>2353</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12837</v>
+        <v>12561</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3199035101610825</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1338019157124866</v>
+        <v>0.1112275518039559</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6068819395843993</v>
+        <v>0.5938217396010954</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -4715,19 +4715,19 @@
         <v>10311</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4987</v>
+        <v>4782</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17865</v>
+        <v>17225</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2504711895960508</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1211410082536678</v>
+        <v>0.1161634372365487</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4339577777762915</v>
+        <v>0.418419481539649</v>
       </c>
     </row>
     <row r="23">
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4190</v>
+        <v>4205</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1527680307413194</v>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6493386208115342</v>
+        <v>0.6516761536968626</v>
       </c>
     </row>
     <row r="28">
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4251</v>
+        <v>4291</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1631645010176001</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6588685726105373</v>
+        <v>0.665049920698812</v>
       </c>
     </row>
     <row r="29">
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4423</v>
+        <v>3397</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2627723250498188</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>1</v>
+        <v>0.7681181017957516</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4394</v>
+        <v>4510</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.180162987815024</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6810455920746</v>
+        <v>0.6990533912159875</v>
       </c>
     </row>
     <row r="32">
@@ -5253,7 +5253,7 @@
         <v>4237</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>6452</v>
@@ -5262,7 +5262,7 @@
         <v>0.656672511167376</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1636095329685042</v>
+        <v>0.1665263912331825</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -5333,19 +5333,19 @@
         <v>4411</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12815</v>
+        <v>13502</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03017931443159049</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007287621290187783</v>
+        <v>0.007113892233373203</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08767028858283824</v>
+        <v>0.09237633340162808</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -5354,19 +5354,19 @@
         <v>3188</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8570</v>
+        <v>8816</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01153372351593624</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00360459117588439</v>
+        <v>0.003599666371499464</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03100405042341283</v>
+        <v>0.03189429510055648</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -5375,19 +5375,19 @@
         <v>7599</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3113</v>
+        <v>3230</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16925</v>
+        <v>18282</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01798299522003655</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.00736555817297244</v>
+        <v>0.00764354036645185</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0400502159332043</v>
+        <v>0.04326177470805904</v>
       </c>
     </row>
     <row r="35">
@@ -5404,19 +5404,19 @@
         <v>11846</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6333</v>
+        <v>6405</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20232</v>
+        <v>19858</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08104216204103554</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04332457320948793</v>
+        <v>0.04381812348180521</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1384186635564052</v>
+        <v>0.1358598957965791</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>48</v>
@@ -5425,19 +5425,19 @@
         <v>51695</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>39242</v>
+        <v>38690</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>67384</v>
+        <v>64638</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1870150517725145</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1419652354855937</v>
+        <v>0.1399699085675585</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.243773295852073</v>
+        <v>0.2338383553400514</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>59</v>
@@ -5446,19 +5446,19 @@
         <v>63540</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>49715</v>
+        <v>50526</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>79843</v>
+        <v>79053</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1503603829964679</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1176435783593269</v>
+        <v>0.1195635947297016</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.188938228651959</v>
+        <v>0.1870694066034866</v>
       </c>
     </row>
     <row r="36">
@@ -5522,19 +5522,19 @@
         <v>33956</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23728</v>
+        <v>23707</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>45412</v>
+        <v>45501</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2323065098291709</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1623342955361214</v>
+        <v>0.1621881294445405</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.310686426394403</v>
+        <v>0.3112911963174954</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>81</v>
@@ -5543,19 +5543,19 @@
         <v>87233</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>72410</v>
+        <v>71514</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>104500</v>
+        <v>103717</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.315581996254001</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2619580914565044</v>
+        <v>0.2587161220017504</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3780461588707308</v>
+        <v>0.3752139108013031</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>113</v>
@@ -5564,19 +5564,19 @@
         <v>121189</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>102174</v>
+        <v>102990</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>141225</v>
+        <v>142433</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2867780693270221</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2417812669624319</v>
+        <v>0.2437126669741478</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3341911213458532</v>
+        <v>0.3370481568766719</v>
       </c>
     </row>
     <row r="38">
@@ -5593,19 +5593,19 @@
         <v>26783</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>17606</v>
+        <v>17651</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>38135</v>
+        <v>38661</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1832326350206044</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1204536448685069</v>
+        <v>0.1207601357499336</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2608977126061344</v>
+        <v>0.2645002553756535</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>74</v>
@@ -5614,19 +5614,19 @@
         <v>80897</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>65283</v>
+        <v>65421</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>97720</v>
+        <v>98173</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.292661099488968</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2361717914172022</v>
+        <v>0.2366728335757503</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.353518218943435</v>
+        <v>0.3551586104220925</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>97</v>
@@ -5635,19 +5635,19 @@
         <v>107680</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>91066</v>
+        <v>88940</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>129083</v>
+        <v>127224</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2548111915556961</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2154951059224789</v>
+        <v>0.2104653967723684</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3054589030766202</v>
+        <v>0.3010585457044427</v>
       </c>
     </row>
     <row r="39">
@@ -5664,19 +5664,19 @@
         <v>6292</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04304462128902921</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>6</v>
@@ -5685,19 +5685,19 @@
         <v>6361</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>2338</v>
+        <v>2292</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>12840</v>
+        <v>12936</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02301352297590166</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.00845818157713296</v>
+        <v>0.008290105873450202</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.04644969416169049</v>
+        <v>0.04679747845066812</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>11</v>
@@ -5706,19 +5706,19 @@
         <v>12653</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>6558</v>
+        <v>6466</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>23168</v>
+        <v>21855</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02994202398921331</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.01551845269097915</v>
+        <v>0.01530049892190988</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05482312079233326</v>
+        <v>0.05171630810431447</v>
       </c>
     </row>
     <row r="40">
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5719</v>
+        <v>4975</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006825898475646566</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03912736418447687</v>
+        <v>0.03403735042515448</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7598</v>
+        <v>6771</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007924909256654256</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02748730037283114</v>
+        <v>0.02449620700676804</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -5777,19 +5777,19 @@
         <v>3188</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>9726</v>
+        <v>8696</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007544775467142475</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002350265817223304</v>
+        <v>0.002347887257141487</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02301478426712919</v>
+        <v>0.02057771123230912</v>
       </c>
     </row>
     <row r="41">
@@ -5806,19 +5806,19 @@
         <v>57644</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>45366</v>
+        <v>45161</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>70756</v>
+        <v>71663</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3943691896359791</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3103692095760891</v>
+        <v>0.3089694678916448</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4840744276628496</v>
+        <v>0.4902804845628937</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>40</v>
@@ -5827,19 +5827,19 @@
         <v>43221</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>30462</v>
+        <v>31669</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>56868</v>
+        <v>56775</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1563606458439459</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1102025629357299</v>
+        <v>0.1145701776810748</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.205731637527348</v>
+        <v>0.2053935812904511</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>90</v>
@@ -5848,19 +5848,19 @@
         <v>100865</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>82118</v>
+        <v>83299</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>118801</v>
+        <v>122030</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2386847606309628</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1943226386453054</v>
+        <v>0.1971173448916881</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2811278114520239</v>
+        <v>0.2887693619111234</v>
       </c>
     </row>
     <row r="42">
@@ -5877,19 +5877,19 @@
         <v>20142</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>12297</v>
+        <v>12905</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>29563</v>
+        <v>30593</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1377976274710808</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08412915520851511</v>
+        <v>0.08828850016397888</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2022522276838096</v>
+        <v>0.2093004415535017</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>40</v>
@@ -5898,19 +5898,19 @@
         <v>46164</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>34422</v>
+        <v>34573</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>60899</v>
+        <v>60808</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1670083629947658</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1245293228437835</v>
+        <v>0.1250724714912324</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2203143116712272</v>
+        <v>0.2199842725304218</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>59</v>
@@ -5919,19 +5919,19 @@
         <v>66306</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>50258</v>
+        <v>51976</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>82119</v>
+        <v>82817</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1569047427383172</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1189284075686608</v>
+        <v>0.1229945657980492</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1943232333595759</v>
+        <v>0.1959762905107388</v>
       </c>
     </row>
     <row r="43">
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4106</v>
+        <v>5007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009525451775863671</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04392977285287877</v>
+        <v>0.05357572624483915</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -6259,19 +6259,19 @@
         <v>6076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2365</v>
+        <v>2383</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12463</v>
+        <v>13444</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02913188324845475</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01134019057414993</v>
+        <v>0.01142746357921494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05975719040925023</v>
+        <v>0.06446018649489575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -6280,19 +6280,19 @@
         <v>6966</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2442</v>
+        <v>2467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14425</v>
+        <v>13982</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02306452554753659</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008085306420373476</v>
+        <v>0.008167960692747464</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04776002521660977</v>
+        <v>0.04629278411435386</v>
       </c>
     </row>
     <row r="5">
@@ -6309,19 +6309,19 @@
         <v>5811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2562</v>
+        <v>2504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11438</v>
+        <v>11732</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06217532711010577</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02740931818797862</v>
+        <v>0.02678806453641366</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1223774073159542</v>
+        <v>0.1255269725212628</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -6330,19 +6330,19 @@
         <v>16342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8902</v>
+        <v>8932</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26088</v>
+        <v>25514</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07835554205822065</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04268445618585337</v>
+        <v>0.04282781271565406</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.125085666138741</v>
+        <v>0.1223339220799052</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>20</v>
@@ -6351,19 +6351,19 @@
         <v>22153</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13780</v>
+        <v>13931</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>32513</v>
+        <v>33905</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07334845283317759</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0456249945979228</v>
+        <v>0.04612480151659618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1076493556252551</v>
+        <v>0.1122598540789919</v>
       </c>
     </row>
     <row r="6">
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7768</v>
+        <v>6730</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006458733022572587</v>
@@ -6405,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0372433596164537</v>
+        <v>0.03226832107945059</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -6417,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7881</v>
+        <v>6806</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004460029505440338</v>
@@ -6426,7 +6426,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02609387141605061</v>
+        <v>0.02253317559065874</v>
       </c>
     </row>
     <row r="7">
@@ -6443,19 +6443,19 @@
         <v>29284</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22199</v>
+        <v>21029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37700</v>
+        <v>38016</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3133184673997337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2375159431866345</v>
+        <v>0.2249975397012006</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.403363031325388</v>
+        <v>0.4067433586300481</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -6464,19 +6464,19 @@
         <v>64202</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50414</v>
+        <v>50635</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80524</v>
+        <v>79258</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3078347419293277</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2417252717288093</v>
+        <v>0.2427828215075948</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3860934133188913</v>
+        <v>0.3800222659370009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -6485,19 +6485,19 @@
         <v>93486</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76913</v>
+        <v>76153</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110651</v>
+        <v>109517</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3095317220253284</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.254657466371666</v>
+        <v>0.2521423272513009</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3663640145388423</v>
+        <v>0.3626102023413066</v>
       </c>
     </row>
     <row r="8">
@@ -6514,19 +6514,19 @@
         <v>15707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9540</v>
+        <v>9735</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23297</v>
+        <v>23510</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1680542641872921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1020711753319482</v>
+        <v>0.1041542265254014</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2492643861961783</v>
+        <v>0.251540947157421</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -6535,19 +6535,19 @@
         <v>58900</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45162</v>
+        <v>45769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>74359</v>
+        <v>75291</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2824096843356583</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2165409183714906</v>
+        <v>0.2194493285314333</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.356533830571457</v>
+        <v>0.361000115051745</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -6556,19 +6556,19 @@
         <v>74607</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>59462</v>
+        <v>59060</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>93139</v>
+        <v>91068</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2470215393767518</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1968789578943829</v>
+        <v>0.1955473225961449</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3083828549579751</v>
+        <v>0.3015262285302659</v>
       </c>
     </row>
     <row r="9">
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6834</v>
+        <v>6280</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01982454610840135</v>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07312116369852142</v>
+        <v>0.06719634193924866</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -6606,19 +6606,19 @@
         <v>13536</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7874</v>
+        <v>7011</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23646</v>
+        <v>22606</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.06490322460119097</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03775438627996335</v>
+        <v>0.03361411646819112</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1133747416401361</v>
+        <v>0.1083914179881818</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -6627,19 +6627,19 @@
         <v>15389</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8894</v>
+        <v>8471</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24306</v>
+        <v>25672</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05095328845484055</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02944884773904639</v>
+        <v>0.02804811112228046</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08047839647679185</v>
+        <v>0.08499803893871342</v>
       </c>
     </row>
     <row r="10">
@@ -6659,7 +6659,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4449</v>
+        <v>4070</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008468275198743632</v>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04760077340006484</v>
+        <v>0.04354266966186997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7447</v>
+        <v>8697</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01181635496280991</v>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03570753987103238</v>
+        <v>0.04170208757313092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -6698,19 +6698,19 @@
         <v>3256</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9666</v>
+        <v>9425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01078026649519693</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002622327561612499</v>
+        <v>0.002608090966865035</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03200406626314747</v>
+        <v>0.03120450899829664</v>
       </c>
     </row>
     <row r="11">
@@ -6727,19 +6727,19 @@
         <v>38715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29471</v>
+        <v>30914</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47495</v>
+        <v>48488</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4142208850993981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3153143212320425</v>
+        <v>0.3307532586323623</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.50815825072332</v>
+        <v>0.5187877988225408</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -6748,19 +6748,19 @@
         <v>30575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20532</v>
+        <v>20330</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42942</v>
+        <v>42899</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1465991647770166</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09844593230655981</v>
+        <v>0.09747828540658256</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2058968289222542</v>
+        <v>0.20568844256366</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>68</v>
@@ -6769,19 +6769,19 @@
         <v>69290</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>55755</v>
+        <v>54843</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>83218</v>
+        <v>83966</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.229416719210668</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1846038274165107</v>
+        <v>0.1815831231156259</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2755344579674107</v>
+        <v>0.2780086923247233</v>
       </c>
     </row>
     <row r="12">
@@ -6798,19 +6798,19 @@
         <v>13498</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7707</v>
+        <v>7759</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20615</v>
+        <v>20491</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1444156111923882</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08245886709831336</v>
+        <v>0.0830120973894333</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2205694909833515</v>
+        <v>0.2192358254793614</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -6819,19 +6819,19 @@
         <v>28242</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17797</v>
+        <v>18476</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39722</v>
+        <v>41039</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1354122661528082</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08533289917218435</v>
+        <v>0.08858565141422109</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.190456514229891</v>
+        <v>0.1967699384504731</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -6840,19 +6840,19 @@
         <v>41739</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30552</v>
+        <v>30337</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>56048</v>
+        <v>55574</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1381984189994536</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1011562515341002</v>
+        <v>0.1004449223775929</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1855751043712162</v>
+        <v>0.1840038026420998</v>
       </c>
     </row>
     <row r="13">
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5972</v>
+        <v>5934</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02214635410109598</v>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.114748697203615</v>
+        <v>0.1140299099736854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5890</v>
+        <v>6455</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01538378609906214</v>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07862366954726363</v>
+        <v>0.08616852406829219</v>
       </c>
     </row>
     <row r="15">
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6159</v>
+        <v>5037</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02326649782380277</v>
@@ -7008,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1183523348810935</v>
+        <v>0.09679886351633003</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6287</v>
+        <v>6681</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0161618848936387</v>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08392351004959298</v>
+        <v>0.08917507550205939</v>
       </c>
     </row>
     <row r="16">
@@ -7093,19 +7093,19 @@
         <v>5048</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2420</v>
+        <v>2349</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9665</v>
+        <v>9443</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2206642877486115</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1057720717335493</v>
+        <v>0.1027013344983896</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.422486386306103</v>
+        <v>0.4127919040738847</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -7114,19 +7114,19 @@
         <v>9299</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4160</v>
+        <v>4037</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17164</v>
+        <v>17149</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1786909055498501</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07994512809668411</v>
+        <v>0.07757257969422136</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3298316790247407</v>
+        <v>0.3295416038182956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -7135,19 +7135,19 @@
         <v>14347</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7875</v>
+        <v>7763</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22963</v>
+        <v>23008</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1915078166359252</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1051171667927136</v>
+        <v>0.1036205426557241</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3065071962383368</v>
+        <v>0.307112268475728</v>
       </c>
     </row>
     <row r="18">
@@ -7164,19 +7164,19 @@
         <v>2940</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7198</v>
+        <v>7610</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1285306292736566</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03302516157492875</v>
+        <v>0.03377718553060716</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3146463542529153</v>
+        <v>0.3326593301787491</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -7185,19 +7185,19 @@
         <v>11682</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5980</v>
+        <v>5633</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20497</v>
+        <v>19055</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2244742738419533</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.114902139702931</v>
+        <v>0.1082464442884992</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3938648753095618</v>
+        <v>0.3661648109957651</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -7206,19 +7206,19 @@
         <v>14622</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8238</v>
+        <v>8372</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>24010</v>
+        <v>23748</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1951771074643977</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.109955545584474</v>
+        <v>0.1117547907249367</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3204829443552305</v>
+        <v>0.3169843529908572</v>
       </c>
     </row>
     <row r="19">
@@ -7248,19 +7248,19 @@
         <v>8622</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3441</v>
+        <v>4315</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15872</v>
+        <v>16277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.165685210119169</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06611685373765556</v>
+        <v>0.0829162156764227</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3049915192561571</v>
+        <v>0.3127844337407693</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -7269,19 +7269,19 @@
         <v>8622</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3428</v>
+        <v>3465</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16728</v>
+        <v>16681</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1150918937092821</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04575953090581605</v>
+        <v>0.04624753345326049</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2232808049908266</v>
+        <v>0.2226561813893862</v>
       </c>
     </row>
     <row r="20">
@@ -7345,19 +7345,19 @@
         <v>10764</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6029</v>
+        <v>6346</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15033</v>
+        <v>14919</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4705513034550431</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2635465946389084</v>
+        <v>0.2773937391229204</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.657170251127433</v>
+        <v>0.6521673459867097</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -7366,19 +7366,19 @@
         <v>14547</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7768</v>
+        <v>8420</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>22815</v>
+        <v>22726</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2795263967824441</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1492675934559689</v>
+        <v>0.1617965959971253</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4384166063971882</v>
+        <v>0.4367017259450123</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -7387,19 +7387,19 @@
         <v>25311</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17310</v>
+        <v>17055</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35171</v>
+        <v>34189</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3378573940905604</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2310523555240001</v>
+        <v>0.2276481461576775</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.469468372337555</v>
+        <v>0.4563561065246753</v>
       </c>
     </row>
     <row r="22">
@@ -7416,19 +7416,19 @@
         <v>4123</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8563</v>
+        <v>8224</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1802537795226887</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06957951007786402</v>
+        <v>0.06955193754526848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3743072564201443</v>
+        <v>0.3594968567398457</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -7437,19 +7437,19 @@
         <v>8729</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3524</v>
+        <v>4176</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16480</v>
+        <v>17007</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1677270741760439</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06771721370788922</v>
+        <v>0.08025485230475032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3166831030274971</v>
+        <v>0.3268062632806802</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>12</v>
@@ -7458,19 +7458,19 @@
         <v>12852</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7354</v>
+        <v>6939</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>21051</v>
+        <v>21516</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.171552204775935</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09816840956888878</v>
+        <v>0.09262239461792296</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2809957130053269</v>
+        <v>0.2871943471179327</v>
       </c>
     </row>
     <row r="23">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4170</v>
+        <v>3998</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2052371439526753</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8148629243268938</v>
+        <v>0.7811843288556136</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4515</v>
+        <v>5451</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1865851126397326</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6677351957756283</v>
+        <v>0.806194167020668</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6604</v>
+        <v>6823</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1946211107116006</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5558617905269115</v>
+        <v>0.5742852248860139</v>
       </c>
     </row>
     <row r="28">
@@ -7891,7 +7891,7 @@
         <v>4068</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>948</v>
+        <v>1120</v>
       </c>
       <c r="F31" s="5" t="n">
         <v>5118</v>
@@ -7900,7 +7900,7 @@
         <v>0.7947628560473247</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1851370756731051</v>
+        <v>0.2188156711443912</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4057</v>
+        <v>4088</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1528493488496563</v>
@@ -7924,7 +7924,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6</v>
+        <v>0.6045280887880237</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>5</v>
@@ -7933,19 +7933,19 @@
         <v>5101</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1598</v>
+        <v>1496</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9228</v>
+        <v>8977</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4294098810297112</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.134553856939596</v>
+        <v>0.1259466166347938</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7767275379750854</v>
+        <v>0.7556273660542026</v>
       </c>
     </row>
     <row r="32">
@@ -7975,7 +7975,7 @@
         <v>5500</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2247</v>
+        <v>1311</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>6762</v>
@@ -7984,7 +7984,7 @@
         <v>0.8134148873602675</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3322648042243682</v>
+        <v>0.193805832979332</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -7996,19 +7996,19 @@
         <v>5500</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2129</v>
+        <v>2075</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>9550</v>
+        <v>9446</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4629650968369124</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1792340405180672</v>
+        <v>0.174695098147177</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8038997276682832</v>
+        <v>0.7950996933171245</v>
       </c>
     </row>
     <row r="33">
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4161</v>
+        <v>4106</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.007329956925798094</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03425978001441873</v>
+        <v>0.03380395760645717</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -8097,19 +8097,19 @@
         <v>7228</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2509</v>
+        <v>2472</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15007</v>
+        <v>14437</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02703546515635229</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009384709233459113</v>
+        <v>0.009245450066440087</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05613101291122055</v>
+        <v>0.05399922735104487</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -8118,19 +8118,19 @@
         <v>8119</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3562</v>
+        <v>3582</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>16066</v>
+        <v>16601</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02087993295607754</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.009160072483910379</v>
+        <v>0.00921212496459263</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0413196162386994</v>
+        <v>0.04269545784466733</v>
       </c>
     </row>
     <row r="35">
@@ -8147,19 +8147,19 @@
         <v>5811</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2546</v>
+        <v>2430</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11310</v>
+        <v>11702</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04784470913172616</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02095926584904622</v>
+        <v>0.020006872367545</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09311811710643372</v>
+        <v>0.0963499990972659</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -8168,19 +8168,19 @@
         <v>17553</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9937</v>
+        <v>9908</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27638</v>
+        <v>28902</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06565127743669241</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03716803134611572</v>
+        <v>0.03705637376115754</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.103373137835541</v>
+        <v>0.1081007504671799</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>21</v>
@@ -8189,19 +8189,19 @@
         <v>23364</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>14408</v>
+        <v>14812</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>36012</v>
+        <v>35603</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06008892891488883</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0370567464625828</v>
+        <v>0.03809458874525237</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09261951122288357</v>
+        <v>0.09156691168983618</v>
       </c>
     </row>
     <row r="36">
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7545</v>
+        <v>7993</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005038248780894764</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02821840820711234</v>
+        <v>0.02989655782540923</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6772</v>
+        <v>6770</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.003464419664642608</v>
@@ -8264,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01741722001328332</v>
+        <v>0.01741097085552876</v>
       </c>
     </row>
     <row r="37">
@@ -8281,19 +8281,19 @@
         <v>35382</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>26212</v>
+        <v>26604</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>44248</v>
+        <v>44783</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2913127646686062</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2158130664458962</v>
+        <v>0.2190425914393711</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3643033143631941</v>
+        <v>0.368713043047995</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>59</v>
@@ -8302,19 +8302,19 @@
         <v>74763</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>59685</v>
+        <v>59683</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>93655</v>
+        <v>92419</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2796314783268767</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2232358702697837</v>
+        <v>0.223229096580025</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3502903037867434</v>
+        <v>0.3456704478220551</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>100</v>
@@ -8323,19 +8323,19 @@
         <v>110145</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>92972</v>
+        <v>90803</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>128875</v>
+        <v>128435</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2832804344144774</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2391127998660184</v>
+        <v>0.2335336905231195</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3314516226215171</v>
+        <v>0.3303181974015781</v>
       </c>
     </row>
     <row r="38">
@@ -8352,19 +8352,19 @@
         <v>18647</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>12414</v>
+        <v>11535</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>28442</v>
+        <v>26314</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1535282986107689</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1022095448318936</v>
+        <v>0.09497090901331036</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2341700921726541</v>
+        <v>0.2166472018746338</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>55</v>
@@ -8373,19 +8373,19 @@
         <v>70581</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>55378</v>
+        <v>57053</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>86949</v>
+        <v>88563</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2639909301953108</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2071271130239427</v>
+        <v>0.21339108741789</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3252089568597847</v>
+        <v>0.3312471231496483</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>76</v>
@@ -8394,19 +8394,19 @@
         <v>89229</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>70430</v>
+        <v>72307</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>108023</v>
+        <v>107990</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2294850307437334</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1811364473924327</v>
+        <v>0.1859656117652191</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2778226905414137</v>
+        <v>0.277737734022959</v>
       </c>
     </row>
     <row r="39">
@@ -8426,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0152552416900882</v>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>19</v>
@@ -8444,19 +8444,19 @@
         <v>22159</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.08287831511978425</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>21</v>
@@ -8465,19 +8465,19 @@
         <v>24011</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.06175447496768832</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
     </row>
     <row r="40">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4034</v>
+        <v>4355</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.006516446033549632</v>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03321187456050332</v>
+        <v>0.03586013215248002</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -8518,7 +8518,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8752</v>
+        <v>8570</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.009217556412059879</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03273552225661316</v>
+        <v>0.0320521608673674</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -8536,19 +8536,19 @@
         <v>3256</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>9517</v>
+        <v>9253</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.008373793758649314</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002031541399152257</v>
+        <v>0.002022792464340378</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02447607399564251</v>
+        <v>0.02379782168283829</v>
       </c>
     </row>
     <row r="41">
@@ -8565,19 +8565,19 @@
         <v>53547</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>44394</v>
+        <v>44557</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>63662</v>
+        <v>64999</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4408665818086169</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3655085366249783</v>
+        <v>0.3668498396276057</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5241453321262012</v>
+        <v>0.5351558344725688</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>39</v>
@@ -8586,19 +8586,19 @@
         <v>46155</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>32388</v>
+        <v>34196</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>59845</v>
+        <v>60696</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1726305386341195</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1211395495811254</v>
+        <v>0.1278998762430598</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2238356991038389</v>
+        <v>0.2270185971844159</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>97</v>
@@ -8607,19 +8607,19 @@
         <v>99702</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>82783</v>
+        <v>81430</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>120662</v>
+        <v>119400</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2564211002231249</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2129083481841398</v>
+        <v>0.2094274602335464</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3103278473538845</v>
+        <v>0.3070816339598057</v>
       </c>
     </row>
     <row r="42">
@@ -8636,19 +8636,19 @@
         <v>17621</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>11402</v>
+        <v>11091</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>24830</v>
+        <v>25643</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1450799672884868</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.09387336926364175</v>
+        <v>0.09131365325303466</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2044345413184652</v>
+        <v>0.2111288076292383</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>34</v>
@@ -8657,19 +8657,19 @@
         <v>42470</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>31019</v>
+        <v>30741</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>56917</v>
+        <v>57077</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1588485796188314</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1160181170356479</v>
+        <v>0.1149793726906935</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2128831490277394</v>
+        <v>0.2134821255813046</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>54</v>
@@ -8678,19 +8678,19 @@
         <v>60091</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>45684</v>
+        <v>46327</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>77741</v>
+        <v>76812</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1545475925262416</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1174926022305788</v>
+        <v>0.1191483386813608</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1999395332456371</v>
+        <v>0.1975509520018247</v>
       </c>
     </row>
     <row r="43">
@@ -8997,19 +8997,19 @@
         <v>3008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1144</v>
+        <v>1002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7283</v>
+        <v>6888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02898398124124701</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01102365052492879</v>
+        <v>0.00966060194791532</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07018025785191302</v>
+        <v>0.0663809937902109</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -9018,19 +9018,19 @@
         <v>14476</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9224</v>
+        <v>9312</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22105</v>
+        <v>22235</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0522954675213021</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03332377352962854</v>
+        <v>0.03363931381314432</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07985575546701221</v>
+        <v>0.08032452249041765</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -9039,19 +9039,19 @@
         <v>17484</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11629</v>
+        <v>11897</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25318</v>
+        <v>25100</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04593932177811937</v>
+        <v>0.04593932177811936</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03055546086693257</v>
+        <v>0.03125978154999677</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06652469027418066</v>
+        <v>0.06595163783673944</v>
       </c>
     </row>
     <row r="5">
@@ -9068,19 +9068,19 @@
         <v>23440</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16981</v>
+        <v>17075</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30801</v>
+        <v>30688</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.225879222055567</v>
+        <v>0.2258792220555671</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1636408963562972</v>
+        <v>0.1645459116540213</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2968149391006381</v>
+        <v>0.295728511183836</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>142</v>
@@ -9089,19 +9089,19 @@
         <v>70737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59959</v>
+        <v>61068</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81160</v>
+        <v>82717</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2555412312739599</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2166042836015261</v>
+        <v>0.2206111693635592</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2931934252600617</v>
+        <v>0.2988200985005474</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>177</v>
@@ -9110,19 +9110,19 @@
         <v>94177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>81526</v>
+        <v>82014</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107467</v>
+        <v>106568</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2474535421681373</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2142135120055787</v>
+        <v>0.2154950862041951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2823727510931375</v>
+        <v>0.2800108570217133</v>
       </c>
     </row>
     <row r="6">
@@ -9142,16 +9142,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2080</v>
+        <v>1791</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.003297499420103034</v>
+        <v>0.003297499420103035</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02004164111518507</v>
+        <v>0.01725555673125887</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -9160,19 +9160,19 @@
         <v>1647</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>285</v>
+        <v>574</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4943</v>
+        <v>5492</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005948232302531767</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001029100265039595</v>
+        <v>0.002074743464585421</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01785770479722048</v>
+        <v>0.01984007778263247</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -9181,19 +9181,19 @@
         <v>1989</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5182</v>
+        <v>5755</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.005225479393319834</v>
+        <v>0.005225479393319833</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001761946365896781</v>
+        <v>0.001676381169331497</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01361623803504651</v>
+        <v>0.01512152524632723</v>
       </c>
     </row>
     <row r="7">
@@ -9210,19 +9210,19 @@
         <v>60551</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>51826</v>
+        <v>52279</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68177</v>
+        <v>68665</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5835070586180821</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4994281367148828</v>
+        <v>0.5037920946878661</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6569945562448553</v>
+        <v>0.6617002615692289</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>326</v>
@@ -9231,19 +9231,19 @@
         <v>170461</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>157997</v>
+        <v>157331</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>182865</v>
+        <v>182663</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6157993954891767</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5707715776400527</v>
+        <v>0.568363983938689</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6606092836222603</v>
+        <v>0.6598799257972655</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>417</v>
@@ -9252,19 +9252,19 @@
         <v>231012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>216145</v>
+        <v>216638</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>244776</v>
+        <v>245711</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6069945171954987</v>
+        <v>0.6069945171954985</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5679287151853299</v>
+        <v>0.5692241642590228</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.643157924033418</v>
+        <v>0.6456148356764745</v>
       </c>
     </row>
     <row r="8">
@@ -9281,19 +9281,19 @@
         <v>8811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5170</v>
+        <v>5048</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14408</v>
+        <v>14851</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08490458051030496</v>
+        <v>0.08490458051030499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04982540516762975</v>
+        <v>0.0486484091791909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1388489426662013</v>
+        <v>0.1431102140151033</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>103</v>
@@ -9302,19 +9302,19 @@
         <v>57859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48531</v>
+        <v>47502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>69173</v>
+        <v>69947</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2090186330726856</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1753197517277534</v>
+        <v>0.1716017259287664</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2498912770938659</v>
+        <v>0.2526857209090129</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>117</v>
@@ -9323,19 +9323,19 @@
         <v>66670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>55605</v>
+        <v>55525</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>77807</v>
+        <v>79118</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1751775043953394</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1461055514995187</v>
+        <v>0.1458951365390471</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2044417791756474</v>
+        <v>0.2078865625762028</v>
       </c>
     </row>
     <row r="9">
@@ -9352,19 +9352,19 @@
         <v>3317</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1426</v>
+        <v>1362</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7001</v>
+        <v>7156</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03196813265529742</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01374439362107564</v>
+        <v>0.0131237991389023</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06746559228135889</v>
+        <v>0.06895512723331106</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -9373,19 +9373,19 @@
         <v>10941</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6984</v>
+        <v>6870</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16086</v>
+        <v>16394</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.03952361526571477</v>
+        <v>0.03952361526571478</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02523107101033491</v>
+        <v>0.02481847514879012</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05811287410676273</v>
+        <v>0.05922319229251834</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>27</v>
@@ -9394,19 +9394,19 @@
         <v>14258</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9551</v>
+        <v>10055</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>20358</v>
+        <v>21058</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.03746352574353859</v>
+        <v>0.03746352574353858</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02509436301292977</v>
+        <v>0.02642009986017864</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05349023043800675</v>
+        <v>0.05532963568423385</v>
       </c>
     </row>
     <row r="10">
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4341</v>
+        <v>4831</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01306986409438593</v>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04183010877277604</v>
+        <v>0.04655438410657736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>2036</v>
+        <v>2544</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001811011038939164</v>
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.007355700969497788</v>
+        <v>0.009190819253218295</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -9465,19 +9465,19 @@
         <v>1858</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5935</v>
+        <v>5632</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.00488086724895379</v>
+        <v>0.004880867248953789</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001321095632106188</v>
+        <v>0.001315288357126734</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01559560304309634</v>
+        <v>0.01479926813593965</v>
       </c>
     </row>
     <row r="11">
@@ -9494,19 +9494,19 @@
         <v>35289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>27910</v>
+        <v>26437</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>44220</v>
+        <v>42805</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3400698615933571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.268953951271712</v>
+        <v>0.2547613279145786</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4261339374674039</v>
+        <v>0.4124963350794832</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -9515,19 +9515,19 @@
         <v>29529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22562</v>
+        <v>22532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37524</v>
+        <v>37884</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1066755743342072</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08150790866343548</v>
+        <v>0.08139708369060511</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1355581076558817</v>
+        <v>0.1368592885895528</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>110</v>
@@ -9536,19 +9536,19 @@
         <v>64818</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54112</v>
+        <v>53795</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78262</v>
+        <v>76035</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1703132200691623</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.142181935679909</v>
+        <v>0.1413497151103226</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2056354093571077</v>
+        <v>0.1997839763134664</v>
       </c>
     </row>
     <row r="12">
@@ -9565,19 +9565,19 @@
         <v>15231</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9350</v>
+        <v>10283</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21037</v>
+        <v>22440</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1467791936150464</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09009871007549837</v>
+        <v>0.09908855623623343</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2027242541604268</v>
+        <v>0.216242119829933</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -9586,19 +9586,19 @@
         <v>45792</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36457</v>
+        <v>37481</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55927</v>
+        <v>55880</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1654273742034548</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1317017632272615</v>
+        <v>0.135402910954299</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2020373814963584</v>
+        <v>0.2018694929583955</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>106</v>
@@ -9607,19 +9607,19 @@
         <v>61024</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>49818</v>
+        <v>49345</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72972</v>
+        <v>72015</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1603427325705218</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1308985017722769</v>
+        <v>0.1296565301730356</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1917365053705857</v>
+        <v>0.1892232068462995</v>
       </c>
     </row>
     <row r="13">
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4125</v>
+        <v>3466</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002484265461002141</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01490333170012399</v>
+        <v>0.01252178901012584</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2797</v>
+        <v>3992</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001806901815236036</v>
@@ -9682,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007349532754997851</v>
+        <v>0.01048818519263341</v>
       </c>
     </row>
     <row r="14">
@@ -9703,19 +9703,19 @@
         <v>3627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7608</v>
+        <v>7516</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07665477292066446</v>
+        <v>0.07665477292066447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03023696126716576</v>
+        <v>0.03015367670816816</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1607775719688797</v>
+        <v>0.1588246369241279</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -9724,19 +9724,19 @@
         <v>1991</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5104</v>
+        <v>4804</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03177881129592445</v>
+        <v>0.03177881129592446</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007804780441912901</v>
+        <v>0.00817815183716643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0814675328631126</v>
+        <v>0.07667723629646368</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -9745,19 +9745,19 @@
         <v>5619</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2821</v>
+        <v>2777</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9895</v>
+        <v>10184</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05108867044006936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02565402630545172</v>
+        <v>0.02525371150977247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08997226809630983</v>
+        <v>0.09259760891218521</v>
       </c>
     </row>
     <row r="15">
@@ -9774,19 +9774,19 @@
         <v>7296</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4208</v>
+        <v>4223</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12164</v>
+        <v>12030</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1541871327976033</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08892670711543602</v>
+        <v>0.08923294589854117</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2570374951195166</v>
+        <v>0.254220156035578</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>27</v>
@@ -9795,19 +9795,19 @@
         <v>14349</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10033</v>
+        <v>9969</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19944</v>
+        <v>20193</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.22901468082697</v>
+        <v>0.2290146808269701</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1601369285913004</v>
+        <v>0.1591099985753321</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3183171975170193</v>
+        <v>0.3222913091025046</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>39</v>
@@ -9816,19 +9816,19 @@
         <v>21645</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>15992</v>
+        <v>15817</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>28745</v>
+        <v>28502</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1968168323522928</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1454098772300405</v>
+        <v>0.1438193994956393</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.261372200821958</v>
+        <v>0.2591669667881831</v>
       </c>
     </row>
     <row r="16">
@@ -9848,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3985</v>
+        <v>3358</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0145910035210655</v>
@@ -9857,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08421328907115695</v>
+        <v>0.07095963271444174</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2595</v>
+        <v>2455</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01194266019725349</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04142302193790635</v>
+        <v>0.0391797923192416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -9887,19 +9887,19 @@
         <v>1439</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4484</v>
+        <v>3922</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01308222656411556</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002564762334675146</v>
+        <v>0.002574653886671351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04077596779662501</v>
+        <v>0.03565932424606243</v>
       </c>
     </row>
     <row r="17">
@@ -9916,19 +9916,19 @@
         <v>20072</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14505</v>
+        <v>14692</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26035</v>
+        <v>26108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4241682701910909</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3065156433155469</v>
+        <v>0.310477525211333</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5501762002790765</v>
+        <v>0.5517117371743503</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>56</v>
@@ -9937,19 +9937,19 @@
         <v>29065</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23109</v>
+        <v>23152</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34537</v>
+        <v>35111</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4638984021581066</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3688286032267131</v>
+        <v>0.3695183338677512</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5512416028871665</v>
+        <v>0.5603951898943405</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>85</v>
@@ -9958,19 +9958,19 @@
         <v>49138</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41076</v>
+        <v>41012</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57024</v>
+        <v>57184</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4468027628829714</v>
+        <v>0.4468027628829715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3734999441981659</v>
+        <v>0.3729200061627333</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5185161339573022</v>
+        <v>0.5199724414604122</v>
       </c>
     </row>
     <row r="18">
@@ -9987,19 +9987,19 @@
         <v>7200</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3896</v>
+        <v>3889</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12048</v>
+        <v>11786</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1521420707839879</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08233409822683779</v>
+        <v>0.08218924972585029</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2546035403540155</v>
+        <v>0.2490615590207193</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -10008,19 +10008,19 @@
         <v>9013</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5582</v>
+        <v>5286</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13952</v>
+        <v>13976</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.143846076290353</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08909054726208572</v>
+        <v>0.0843663605554115</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2226883468958761</v>
+        <v>0.2230682703970164</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>27</v>
@@ -10029,19 +10029,19 @@
         <v>16212</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11216</v>
+        <v>11290</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22518</v>
+        <v>22617</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1474157933355779</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1019850351188423</v>
+        <v>0.1026600073568134</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2047557195141812</v>
+        <v>0.2056554423332613</v>
       </c>
     </row>
     <row r="19">
@@ -10058,19 +10058,19 @@
         <v>3737</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1366</v>
+        <v>1281</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7786</v>
+        <v>7719</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07896270917213036</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02886400399932691</v>
+        <v>0.02706825821860103</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1645226479903435</v>
+        <v>0.1631154126942217</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -10079,19 +10079,19 @@
         <v>3557</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1608</v>
+        <v>1323</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7606</v>
+        <v>7336</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05677900329853371</v>
+        <v>0.05677900329853372</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02566880930267351</v>
+        <v>0.02112357671146353</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1214033810111087</v>
+        <v>0.1170904332323099</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -10100,19 +10100,19 @@
         <v>7294</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3703</v>
+        <v>3469</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13169</v>
+        <v>12316</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06632451987813019</v>
+        <v>0.06632451987813021</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03367095499130703</v>
+        <v>0.03154478746488545</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1197439545629495</v>
+        <v>0.1119865974518924</v>
       </c>
     </row>
     <row r="20">
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3652</v>
+        <v>3947</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01368276767494827</v>
@@ -10141,7 +10141,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07717270470556913</v>
+        <v>0.0833967479028674</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3394</v>
+        <v>2935</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009075518378707167</v>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05416278706804454</v>
+        <v>0.04684819369103485</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4068</v>
+        <v>4199</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01105799032429619</v>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03699386350555624</v>
+        <v>0.03817658165043158</v>
       </c>
     </row>
     <row r="21">
@@ -10200,19 +10200,19 @@
         <v>16284</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11095</v>
+        <v>11180</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21640</v>
+        <v>21803</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3441012160210942</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.234464733361202</v>
+        <v>0.2362598069654833</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.457295593097482</v>
+        <v>0.4607420078089455</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -10221,19 +10221,19 @@
         <v>11825</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7803</v>
+        <v>7485</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17524</v>
+        <v>17006</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.188730700268622</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1245353909772898</v>
+        <v>0.1194701730579081</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2797017239503311</v>
+        <v>0.2714299158426059</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>45</v>
@@ -10242,19 +10242,19 @@
         <v>28108</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21186</v>
+        <v>21335</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>35484</v>
+        <v>35483</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2555857082887597</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1926402733984048</v>
+        <v>0.193998810411759</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3226482336728931</v>
+        <v>0.3226437575718714</v>
       </c>
     </row>
     <row r="22">
@@ -10271,19 +10271,19 @@
         <v>7641</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4017</v>
+        <v>4158</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12380</v>
+        <v>12200</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1614680674823843</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08488521879235603</v>
+        <v>0.08786268342914584</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.261604860479941</v>
+        <v>0.2578089064708506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -10292,19 +10292,19 @@
         <v>14511</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9676</v>
+        <v>9449</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20012</v>
+        <v>20054</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2316074700677774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1544304862196455</v>
+        <v>0.1508139719620578</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3194081363878883</v>
+        <v>0.3200753811707526</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -10313,19 +10313,19 @@
         <v>22152</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16398</v>
+        <v>16263</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29333</v>
+        <v>28867</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2014269026694903</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1491009894380326</v>
+        <v>0.1478790501261285</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2667212043274209</v>
+        <v>0.2624813681545438</v>
       </c>
     </row>
     <row r="23">
@@ -10345,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3474</v>
+        <v>3189</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01267595365605952</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0734101844310221</v>
+        <v>0.06737922534705865</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2988</v>
+        <v>3142</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005454387399272496</v>
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02716647656672196</v>
+        <v>0.02856656880795158</v>
       </c>
     </row>
     <row r="24">
@@ -10412,16 +10412,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4162</v>
+        <v>3731</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05583708357829921</v>
+        <v>0.0558370835782992</v>
       </c>
       <c r="H24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2511042217651318</v>
+        <v>0.2251552702901195</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -10430,19 +10430,19 @@
         <v>1744</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4863</v>
+        <v>4297</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1107423714631304</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03112648534493954</v>
+        <v>0.03049735540594968</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3088605295778342</v>
+        <v>0.2729012417023159</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -10451,19 +10451,19 @@
         <v>2669</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6361</v>
+        <v>6232</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.08258502603618885</v>
+        <v>0.08258502603618884</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02043374914892963</v>
+        <v>0.02786210573533547</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1968262983563481</v>
+        <v>0.1928426550440384</v>
       </c>
     </row>
     <row r="25">
@@ -10493,19 +10493,19 @@
         <v>1762</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4631</v>
+        <v>5327</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1119046813222222</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02553470733253559</v>
+        <v>0.02561732122934478</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2941732916635325</v>
+        <v>0.3383683533758646</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -10514,19 +10514,19 @@
         <v>1762</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5007</v>
+        <v>5112</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05451606014804668</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01226268735426965</v>
+        <v>0.01253650106027805</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1549229746123981</v>
+        <v>0.1581930081255905</v>
       </c>
     </row>
     <row r="26">
@@ -10590,19 +10590,19 @@
         <v>3824</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1604</v>
+        <v>1541</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7025</v>
+        <v>7393</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2307205441591588</v>
+        <v>0.2307205441591587</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0967816153637871</v>
+        <v>0.09296678641191515</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4238835830859008</v>
+        <v>0.446083332435164</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -10611,19 +10611,19 @@
         <v>4656</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2337</v>
+        <v>2230</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7879</v>
+        <v>8039</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.2957549236297099</v>
+        <v>0.2957549236297098</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1484676234610573</v>
+        <v>0.1416528183647567</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5004718327776619</v>
+        <v>0.5106334046539002</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>14</v>
@@ -10632,19 +10632,19 @@
         <v>8480</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4922</v>
+        <v>5187</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>12880</v>
+        <v>12864</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2624030269741418</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1523184851753566</v>
+        <v>0.1604921208488506</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3985495995757123</v>
+        <v>0.3980683868893923</v>
       </c>
     </row>
     <row r="28">
@@ -10664,16 +10664,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4986</v>
+        <v>4462</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09690900512510836</v>
+        <v>0.09690900512510835</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3008230733761877</v>
+        <v>0.2692246903732782</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -10682,19 +10682,19 @@
         <v>4380</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2260</v>
+        <v>2201</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7182</v>
+        <v>7400</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.278170828690129</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1435756758325118</v>
+        <v>0.1398080789719444</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4561847800986885</v>
+        <v>0.4700010960260272</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -10703,19 +10703,19 @@
         <v>5986</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3159</v>
+        <v>3169</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10231</v>
+        <v>10479</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1852134474349134</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09773629208222211</v>
+        <v>0.0980464952300628</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3165777067808782</v>
+        <v>0.3242535903318922</v>
       </c>
     </row>
     <row r="29">
@@ -10732,19 +10732,19 @@
         <v>2031</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5045</v>
+        <v>5181</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1225347620533286</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03470013831488784</v>
+        <v>0.03587237383425819</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3044303082216796</v>
+        <v>0.3126415072795424</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -10753,19 +10753,19 @@
         <v>1834</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4770</v>
+        <v>4271</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1164572664156845</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03663558964165219</v>
+        <v>0.03452253517544466</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3029638019550241</v>
+        <v>0.2713045205057053</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -10774,19 +10774,19 @@
         <v>3864</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1607</v>
+        <v>1335</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7886</v>
+        <v>7356</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1195740180181682</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0497110463894487</v>
+        <v>0.04130140675616507</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2440353300338664</v>
+        <v>0.2276255840599848</v>
       </c>
     </row>
     <row r="30">
@@ -10850,19 +10850,19 @@
         <v>9595</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6175</v>
+        <v>6220</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12665</v>
+        <v>12790</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5789255954599863</v>
+        <v>0.5789255954599862</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.372572337511604</v>
+        <v>0.375327296729448</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7642156398243619</v>
+        <v>0.7717530290300498</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -10871,19 +10871,19 @@
         <v>2832</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1102</v>
+        <v>935</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5828</v>
+        <v>5718</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1798581287432098</v>
+        <v>0.1798581287432097</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06998166886512859</v>
+        <v>0.05939963866624796</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3701449747100283</v>
+        <v>0.3631747776188481</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>18</v>
@@ -10892,19 +10892,19 @@
         <v>12426</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8502</v>
+        <v>7834</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>17440</v>
+        <v>16982</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3845138357229954</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2630825781484099</v>
+        <v>0.2424243178449544</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5396424517046707</v>
+        <v>0.5254673000822405</v>
       </c>
     </row>
     <row r="32">
@@ -10921,19 +10921,19 @@
         <v>4119</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1751</v>
+        <v>1575</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7619</v>
+        <v>7710</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2485657004600894</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1056687997813219</v>
+        <v>0.0950454223623942</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4597351481452341</v>
+        <v>0.4652075007556771</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -10942,19 +10942,19 @@
         <v>4581</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2268</v>
+        <v>2427</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>7601</v>
+        <v>7479</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.290964151548643</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.144066849522079</v>
+        <v>0.1541429966871219</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4827891114099767</v>
+        <v>0.4750403696190752</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>15</v>
@@ -10963,19 +10963,19 @@
         <v>8700</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5181</v>
+        <v>5125</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>12746</v>
+        <v>13923</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2692207479738935</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1603288518633332</v>
+        <v>0.1585919342930858</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3944135279075757</v>
+        <v>0.4308144285451698</v>
       </c>
     </row>
     <row r="33">
@@ -11043,19 +11043,19 @@
         <v>7561</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4249</v>
+        <v>4203</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13387</v>
+        <v>12958</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04509294721929104</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02534443598634027</v>
+        <v>0.02506677655941333</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07984591085427047</v>
+        <v>0.0772836719368637</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>30</v>
@@ -11064,19 +11064,19 @@
         <v>18211</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>12717</v>
+        <v>12547</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26463</v>
+        <v>26209</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.05126711623433858</v>
+        <v>0.0512671162343386</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03580223074714918</v>
+        <v>0.03532227170769583</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0744994407202664</v>
+        <v>0.07378400291377578</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>42</v>
@@ -11085,19 +11085,19 @@
         <v>25771</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>18872</v>
+        <v>18333</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>35347</v>
+        <v>34220</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.049287304856358</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03609185844547567</v>
+        <v>0.03506146802244079</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06760053307610842</v>
+        <v>0.06544565507897196</v>
       </c>
     </row>
     <row r="35">
@@ -11114,19 +11114,19 @@
         <v>30736</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23199</v>
+        <v>23684</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>38981</v>
+        <v>38787</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1833173561197484</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1383652822572581</v>
+        <v>0.1412572198876869</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2324900049754088</v>
+        <v>0.2313327412284811</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>172</v>
@@ -11135,19 +11135,19 @@
         <v>86848</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>74430</v>
+        <v>74994</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>98484</v>
+        <v>99369</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2444960610291262</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2095370643975203</v>
+        <v>0.2111253839319613</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.277254882608894</v>
+        <v>0.2797456048531272</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>219</v>
@@ -11156,19 +11156,19 @@
         <v>117584</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>102704</v>
+        <v>103644</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>133231</v>
+        <v>133223</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2248784743102485</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.196421366114654</v>
+        <v>0.1982179974222864</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.25480353565688</v>
+        <v>0.2547886040361713</v>
       </c>
     </row>
     <row r="36">
@@ -11188,7 +11188,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3600</v>
+        <v>3490</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.006159033855496075</v>
@@ -11197,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02147201546165856</v>
+        <v>0.02081408961241123</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -11206,19 +11206,19 @@
         <v>2395</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5669</v>
+        <v>5837</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.00674192423994789</v>
+        <v>0.006741924239947888</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.002136228239693176</v>
+        <v>0.002105031699446661</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01595887986919816</v>
+        <v>0.01643352925563087</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -11227,19 +11227,19 @@
         <v>3427</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1364</v>
+        <v>1526</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7598</v>
+        <v>7188</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006555014388202553</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002608731756850159</v>
+        <v>0.002918582093671122</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01453099523199345</v>
+        <v>0.01374774075140312</v>
       </c>
     </row>
     <row r="37">
@@ -11256,19 +11256,19 @@
         <v>84447</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>74282</v>
+        <v>74188</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>95314</v>
+        <v>96007</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5036633642825122</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.443034642672211</v>
+        <v>0.4424749066152931</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5684780050692628</v>
+        <v>0.5726101838078306</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>390</v>
@@ -11277,19 +11277,19 @@
         <v>204183</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>188470</v>
+        <v>188752</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>216129</v>
+        <v>216867</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.5748212267064953</v>
+        <v>0.5748212267064952</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5305872872344521</v>
+        <v>0.5313785801346789</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6084532487790817</v>
+        <v>0.6105292173453555</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>516</v>
@@ -11298,19 +11298,19 @@
         <v>288630</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>271473</v>
+        <v>270960</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>305924</v>
+        <v>306410</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5520037195542887</v>
+        <v>0.5520037195542886</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5191905148890372</v>
+        <v>0.5182096654300291</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5850783092967259</v>
+        <v>0.5860083681117325</v>
       </c>
     </row>
     <row r="38">
@@ -11327,19 +11327,19 @@
         <v>17616</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>12229</v>
+        <v>11918</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>25111</v>
+        <v>25295</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1050683113902894</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07293380185564488</v>
+        <v>0.07108324301121091</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.149767453580044</v>
+        <v>0.1508636149566501</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>128</v>
@@ -11348,19 +11348,19 @@
         <v>71251</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>60287</v>
+        <v>59620</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>82912</v>
+        <v>83734</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2005881103779824</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1697208438466374</v>
+        <v>0.1678442833160948</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2334154175858894</v>
+        <v>0.23573159255773</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>154</v>
@@ -11369,19 +11369,19 @@
         <v>88867</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>76012</v>
+        <v>76213</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>103098</v>
+        <v>102771</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1699586954077482</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1453719887187049</v>
+        <v>0.1457564591245422</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1971739839052619</v>
+        <v>0.196549179283503</v>
       </c>
     </row>
     <row r="39">
@@ -11398,19 +11398,19 @@
         <v>9085</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>5004</v>
+        <v>5147</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>15840</v>
+        <v>14699</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.05418413015548056</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02984278689090332</v>
+        <v>0.03069821990783284</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0944719066575021</v>
+        <v>0.08767082095517295</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>30</v>
@@ -11419,19 +11419,19 @@
         <v>16332</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>10874</v>
+        <v>11477</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>22400</v>
+        <v>23221</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.04597707526847034</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03061355269387741</v>
+        <v>0.0323102235992548</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06306233082974645</v>
+        <v>0.06537175689301934</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>44</v>
@@ -11440,19 +11440,19 @@
         <v>25416</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>18921</v>
+        <v>19548</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>34495</v>
+        <v>34247</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.04860875260114681</v>
+        <v>0.0486087526011468</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03618647740940543</v>
+        <v>0.03738467542734013</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.06597090281045367</v>
+        <v>0.06549811482212907</v>
       </c>
     </row>
     <row r="40">
@@ -11469,19 +11469,19 @@
         <v>2004</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5434</v>
+        <v>5216</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01195093422063173</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003549182336954771</v>
+        <v>0.003662085818497597</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03240961227737582</v>
+        <v>0.03110697259932173</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3264</v>
+        <v>3813</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.003012096835109945</v>
@@ -11502,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.009188227230784805</v>
+        <v>0.01073560558708253</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -11511,19 +11511,19 @@
         <v>3074</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1171</v>
+        <v>1014</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7063</v>
+        <v>6509</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.005878427821294975</v>
+        <v>0.005878427821294974</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002240128730064631</v>
+        <v>0.001938800548898775</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01350799204760097</v>
+        <v>0.01244912030258897</v>
       </c>
     </row>
     <row r="41">
@@ -11540,19 +11540,19 @@
         <v>61168</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>51961</v>
+        <v>51867</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>71669</v>
+        <v>72435</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3648178289067555</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3099053099091133</v>
+        <v>0.3093458191200719</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.42745397647856</v>
+        <v>0.4320180366572918</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>82</v>
@@ -11561,19 +11561,19 @@
         <v>44186</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>36430</v>
+        <v>35585</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>54930</v>
+        <v>52576</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1243925105442651</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1025591419681253</v>
+        <v>0.1001793754585612</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1546404371987274</v>
+        <v>0.1480124203696655</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>173</v>
@@ -11582,19 +11582,19 @@
         <v>105353</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>92397</v>
+        <v>89642</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>119967</v>
+        <v>118825</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2014873843140915</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1767080975972155</v>
+        <v>0.1714400903659243</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2294363507291177</v>
+        <v>0.2272514566214654</v>
       </c>
     </row>
     <row r="42">
@@ -11611,19 +11611,19 @@
         <v>26992</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19837</v>
+        <v>20062</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>35529</v>
+        <v>36135</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1609862699399995</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1183122248422875</v>
+        <v>0.1196529621873579</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2119037535709904</v>
+        <v>0.2155152176990327</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>116</v>
@@ -11632,19 +11632,19 @@
         <v>64884</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>54498</v>
+        <v>54618</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>78020</v>
+        <v>76956</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1826646342161051</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1534235050248817</v>
+        <v>0.1537625495669154</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2196437391095245</v>
+        <v>0.2166478040132722</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>158</v>
@@ -11653,19 +11653,19 @@
         <v>91876</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>79648</v>
+        <v>78767</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>107470</v>
+        <v>106363</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1757132417055923</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1523259048916386</v>
+        <v>0.1506416338900215</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2055360022765134</v>
+        <v>0.2034179145218484</v>
       </c>
     </row>
     <row r="43">
@@ -11685,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>2461</v>
+        <v>3126</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.003577665133407512</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01468057014058106</v>
+        <v>0.01864371643440068</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>3621</v>
+        <v>3485</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.001935969277950597</v>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01019521365992922</v>
+        <v>0.00981099345962504</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2</v>
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4453</v>
+        <v>4882</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.002462396093591009</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.008516509895199342</v>
+        <v>0.009337727699330721</v>
       </c>
     </row>
     <row r="44">
